--- a/MyMojioWebsite/src/com/mojio/xls/ImportSIMs.xlsx
+++ b/MyMojioWebsite/src/com/mojio/xls/ImportSIMs.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="115">
   <si>
     <t>TCID</t>
   </si>
@@ -291,7 +291,7 @@
     <t>Click on Upload Checkbox</t>
   </si>
   <si>
-    <t>simUploadnableXpath</t>
+    <t>simUploadEnableXpath</t>
   </si>
   <si>
     <t>Verify the Browse Field is Enabled</t>
@@ -300,12 +300,6 @@
     <t>verifyElementEnabledId</t>
   </si>
   <si>
-    <t>Verify the CSV format import  is disabled</t>
-  </si>
-  <si>
-    <t>Verify the APN field is disabled</t>
-  </si>
-  <si>
     <t>Verify the No file Upload Error</t>
   </si>
   <si>
@@ -372,7 +366,7 @@
     <t>CSV_Format_Error</t>
   </si>
   <si>
-    <t>This field is required. </t>
+    <t>This field is required</t>
   </si>
   <si>
     <t>File_Browse_Error</t>
@@ -494,7 +488,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -552,10 +546,6 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="6" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -639,7 +629,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B5" activeCellId="0" pane="topLeft" sqref="B5"/>
+      <selection activeCell="C8" activeCellId="0" pane="topLeft" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -770,17 +760,17 @@
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -805,7 +795,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
+      <selection activeCell="B6" activeCellId="0" pane="topLeft" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -816,23 +806,23 @@
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>4</v>
@@ -854,10 +844,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:77"/>
+  <dimension ref="1:75"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A67" activeCellId="0" pane="topLeft" sqref="A67"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E66" activeCellId="0" pane="topLeft" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1122,6 +1112,8 @@
       <c r="H11" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="AMC11" s="0"/>
+      <c r="AMD11" s="0"/>
       <c r="AME11" s="0"/>
       <c r="AMF11" s="0"/>
       <c r="AMG11" s="0"/>
@@ -1150,6 +1142,8 @@
       <c r="H12" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="AMC12" s="0"/>
+      <c r="AMD12" s="0"/>
       <c r="AME12" s="0"/>
       <c r="AMF12" s="0"/>
       <c r="AMG12" s="0"/>
@@ -1178,6 +1172,8 @@
       <c r="H13" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="AMC13" s="0"/>
+      <c r="AMD13" s="0"/>
       <c r="AME13" s="0"/>
       <c r="AMF13" s="0"/>
       <c r="AMG13" s="0"/>
@@ -1623,6 +1619,9 @@
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
+      <c r="H33" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="34">
       <c r="A34" s="5" t="s">
@@ -1640,6 +1639,9 @@
       <c r="E34" s="5"/>
       <c r="F34" s="12"/>
       <c r="G34" s="5"/>
+      <c r="H34" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="35">
       <c r="A35" s="5" t="s">
@@ -1657,6 +1659,9 @@
       <c r="E35" s="5"/>
       <c r="F35" s="12"/>
       <c r="G35" s="5"/>
+      <c r="H35" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="36">
       <c r="A36" s="5" t="s">
@@ -1676,6 +1681,9 @@
         <v>78</v>
       </c>
       <c r="G36" s="5"/>
+      <c r="H36" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="37">
       <c r="A37" s="5" t="s">
@@ -1695,6 +1703,9 @@
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
+      <c r="H37" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="38">
       <c r="A38" s="7" t="s">
@@ -1714,6 +1725,9 @@
         <v>27</v>
       </c>
       <c r="G38" s="7"/>
+      <c r="H38" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="39">
       <c r="A39" s="7" t="s">
@@ -1733,6 +1747,9 @@
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
+      <c r="H39" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="40">
       <c r="A40" s="7" t="s">
@@ -1752,6 +1769,9 @@
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
+      <c r="H40" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="41">
       <c r="A41" s="7" t="s">
@@ -1771,6 +1791,9 @@
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
+      <c r="H41" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="42">
       <c r="A42" s="7" t="s">
@@ -1790,6 +1813,9 @@
         <v>59</v>
       </c>
       <c r="G42" s="7"/>
+      <c r="H42" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="43">
       <c r="A43" s="7" t="s">
@@ -1811,6 +1837,9 @@
         <v>66</v>
       </c>
       <c r="G43" s="7"/>
+      <c r="H43" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="44">
       <c r="A44" s="7" t="s">
@@ -1830,6 +1859,9 @@
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
+      <c r="H44" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="45">
       <c r="A45" s="7" t="s">
@@ -1849,6 +1881,9 @@
         <v>83</v>
       </c>
       <c r="G45" s="7"/>
+      <c r="H45" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="46">
       <c r="A46" s="9" t="s">
@@ -1868,6 +1903,9 @@
         <v>27</v>
       </c>
       <c r="G46" s="9"/>
+      <c r="H46" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="47">
       <c r="A47" s="9" t="s">
@@ -1887,6 +1925,9 @@
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
+      <c r="H47" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="48">
       <c r="A48" s="9" t="s">
@@ -1906,6 +1947,9 @@
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
+      <c r="H48" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="49">
       <c r="A49" s="9" t="s">
@@ -1925,6 +1969,9 @@
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
+      <c r="H49" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="50">
       <c r="A50" s="9" t="s">
@@ -1944,6 +1991,9 @@
         <v>59</v>
       </c>
       <c r="G50" s="9"/>
+      <c r="H50" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="51">
       <c r="A51" s="9" t="s">
@@ -1963,6 +2013,9 @@
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
+      <c r="H51" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="52">
       <c r="A52" s="9" t="s">
@@ -1982,6 +2035,9 @@
         <v>83</v>
       </c>
       <c r="G52" s="9"/>
+      <c r="H52" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="53">
       <c r="A53" s="5" t="s">
@@ -2001,6 +2057,9 @@
         <v>27</v>
       </c>
       <c r="G53" s="5"/>
+      <c r="H53" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="54">
       <c r="A54" s="5" t="s">
@@ -2020,6 +2079,9 @@
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
+      <c r="H54" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="55">
       <c r="A55" s="5" t="s">
@@ -2039,6 +2101,9 @@
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
+      <c r="H55" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="56">
       <c r="A56" s="5" t="s">
@@ -2058,6 +2123,9 @@
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
+      <c r="H56" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="57">
       <c r="A57" s="5" t="s">
@@ -2077,6 +2145,9 @@
         <v>59</v>
       </c>
       <c r="G57" s="5"/>
+      <c r="H57" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="58">
       <c r="A58" s="5" t="s">
@@ -2096,6 +2167,9 @@
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
+      <c r="H58" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="59">
       <c r="A59" s="7" t="s">
@@ -2115,6 +2189,9 @@
         <v>27</v>
       </c>
       <c r="G59" s="7"/>
+      <c r="H59" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="60">
       <c r="A60" s="7" t="s">
@@ -2134,6 +2211,9 @@
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
+      <c r="H60" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="61">
       <c r="A61" s="7" t="s">
@@ -2153,6 +2233,9 @@
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
+      <c r="H61" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="62">
       <c r="A62" s="7" t="s">
@@ -2172,6 +2255,9 @@
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
+      <c r="H62" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="63">
       <c r="A63" s="7" t="s">
@@ -2191,6 +2277,9 @@
         <v>59</v>
       </c>
       <c r="G63" s="7"/>
+      <c r="H63" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="64">
       <c r="A64" s="7" t="s">
@@ -2210,6 +2299,9 @@
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
+      <c r="H64" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="65">
       <c r="A65" s="7" t="s">
@@ -2229,242 +2321,227 @@
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
+      <c r="H65" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="66">
-      <c r="A66" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
+      <c r="A66" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" s="10"/>
+      <c r="H66" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="67">
-      <c r="A67" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
+      <c r="A67" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F67" s="9"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="68">
       <c r="A68" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9" t="s">
-        <v>27</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F68" s="9"/>
       <c r="G68" s="10"/>
+      <c r="H68" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="69">
       <c r="A69" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="10"/>
+      <c r="H69" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="70">
       <c r="A70" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F70" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="G70" s="10"/>
+      <c r="H70" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="71">
       <c r="A71" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="10"/>
+      <c r="H71" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="72">
       <c r="A72" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9" t="s">
-        <v>59</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F72" s="9"/>
       <c r="G72" s="10"/>
+      <c r="H72" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="73">
       <c r="A73" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="10"/>
+      <c r="H73" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="74">
       <c r="A74" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F74" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="G74" s="10"/>
+      <c r="H74" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="75">
       <c r="A75" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>54</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="10"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="76">
-      <c r="A76" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G76" s="10"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="77">
-      <c r="A77" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="15"/>
-      <c r="S77" s="15"/>
+      <c r="H75" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2500,16 +2577,16 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>100</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>2</v>
@@ -2517,16 +2594,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>4</v>
@@ -2563,7 +2640,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -2571,7 +2648,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -2611,16 +2688,16 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>109</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>2</v>
@@ -2628,16 +2705,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>4</v>
@@ -2673,29 +2750,29 @@
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>109</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>4</v>
@@ -2720,7 +2797,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="C6" activeCellId="0" pane="topLeft" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2731,29 +2808,29 @@
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>4</v>
@@ -2778,7 +2855,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
+      <selection activeCell="B4" activeCellId="0" pane="topLeft" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2788,23 +2865,23 @@
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>4</v>
@@ -2840,7 +2917,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -2848,7 +2925,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>

--- a/MyMojioWebsite/src/com/mojio/xls/ImportSIMs.xlsx
+++ b/MyMojioWebsite/src/com/mojio/xls/ImportSIMs.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="116">
   <si>
     <t>TCID</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>NavigateImportMojioSims</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>ImportSIMsCSVFormat</t>
@@ -377,7 +380,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -629,15 +632,15 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C8" activeCellId="0" pane="topLeft" sqref="C8"/>
+      <selection activeCell="C11" activeCellId="0" pane="topLeft" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.6734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="30.280612244898" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="25.4234693877551" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="25.2908163265306" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -666,12 +669,12 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
@@ -680,52 +683,52 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -756,13 +759,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="26.0714285714286" collapsed="true"/>
+    <col min="2" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -770,7 +773,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -800,18 +803,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.5612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="27.5561224489796" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="28.2244897959184" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="20.5612244897959" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
@@ -819,10 +822,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>4</v>
@@ -852,15 +855,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.6173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.2040816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.4285714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.1428571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.8418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.51530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.6734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="31.8571428571429" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="7.0" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="35.6173469387755" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="26.2040816326531" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="38.4285714285714" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="34.1428571428571" collapsed="true"/>
+    <col min="7" max="7" hidden="false" style="0" width="13.8418367346939" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" hidden="false" style="0" width="7.51171875" collapsed="true"/>
+    <col min="9" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -868,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
@@ -894,21 +897,21 @@
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
@@ -916,21 +919,21 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
@@ -938,21 +941,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
@@ -960,23 +963,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
@@ -984,23 +987,23 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
@@ -1008,21 +1011,21 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
@@ -1030,21 +1033,21 @@
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
@@ -1052,21 +1055,21 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
@@ -1074,21 +1077,21 @@
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11" s="8">
@@ -1096,21 +1099,21 @@
         <v>5</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AMC11" s="0"/>
       <c r="AMD11" s="0"/>
@@ -1126,21 +1129,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AMC12" s="0"/>
       <c r="AMD12" s="0"/>
@@ -1156,21 +1159,21 @@
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AMC13" s="0"/>
       <c r="AMD13" s="0"/>
@@ -1186,1361 +1189,1361 @@
         <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="10"/>
       <c r="H22" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="30">
       <c r="A30" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="31">
       <c r="A31" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="32">
       <c r="A32" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="33">
       <c r="A33" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="34">
       <c r="A34" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="12"/>
       <c r="G34" s="5"/>
       <c r="H34" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="35">
       <c r="A35" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="12"/>
       <c r="G35" s="5"/>
       <c r="H35" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="36">
       <c r="A36" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="37">
       <c r="A37" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="38">
       <c r="A38" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="39">
       <c r="A39" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="40">
       <c r="A40" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="41">
       <c r="A41" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="42">
       <c r="A42" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="43">
       <c r="A43" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="44">
       <c r="A44" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="45">
       <c r="A45" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="46">
       <c r="A46" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="47">
       <c r="A47" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="48">
       <c r="A48" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C48" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="49">
       <c r="A49" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="50">
       <c r="A50" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="51">
       <c r="A51" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="52">
       <c r="A52" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="53">
       <c r="A53" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="54">
       <c r="A54" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="55">
       <c r="A55" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="56">
       <c r="A56" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="57">
       <c r="A57" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="58">
       <c r="A58" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="59">
       <c r="A59" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="60">
       <c r="A60" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="61">
       <c r="A61" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C61" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="62">
       <c r="A62" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="63">
       <c r="A63" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="64">
       <c r="A64" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="65">
       <c r="A65" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="66">
       <c r="A66" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="67">
       <c r="A67" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="10"/>
       <c r="H67" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="68">
       <c r="A68" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C68" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="10"/>
       <c r="H68" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="69">
       <c r="A69" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="10"/>
       <c r="H69" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="70">
       <c r="A70" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="71">
       <c r="A71" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="10"/>
       <c r="H71" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="72">
       <c r="A72" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="10"/>
       <c r="H72" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="73">
       <c r="A73" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C73" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D73" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="E73" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="10"/>
       <c r="H73" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="74">
       <c r="A74" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G74" s="10"/>
       <c r="H74" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="75">
       <c r="A75" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="10"/>
       <c r="H75" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2567,26 +2570,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8520408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.6734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="27.4234693877551" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="27.8520408163265" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="27.2857142857143" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="27.0" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="18.5765306122449" collapsed="true"/>
+    <col min="6" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>2</v>
@@ -2594,16 +2597,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>4</v>
@@ -2633,14 +2636,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.6734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="36.9948979591837" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="18.8520408163265" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -2648,7 +2651,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -2678,26 +2681,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="60.8877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="31.1836734693878" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="13.4336734693878" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="24.1887755102041" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="60.8877551020408" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="21.7704081632653" collapsed="true"/>
+    <col min="6" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>2</v>
@@ -2705,16 +2708,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>4</v>
@@ -2744,21 +2747,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="59.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="25.9387755102041" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="59.280612244898" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>2</v>
@@ -2766,13 +2769,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>4</v>
@@ -2802,21 +2805,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.6122448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.7142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.6428571428572"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="26.6122448979592" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="22.7142857142857" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="55.6428571428572" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>2</v>
@@ -2824,13 +2827,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>4</v>
@@ -2860,17 +2863,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="25.4030612244898" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="23.6530612244898" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
@@ -2878,10 +2881,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>4</v>
@@ -2911,13 +2914,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="26.0714285714286" collapsed="true"/>
+    <col min="2" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -2925,7 +2928,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>

--- a/MyMojioWebsite/src/com/mojio/xls/ImportSIMs.xlsx
+++ b/MyMojioWebsite/src/com/mojio/xls/ImportSIMs.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="116">
   <si>
     <t>TCID</t>
   </si>
